--- a/data/trans_dic/P54_A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>86,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>96,41%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,06; 40,78</t>
+          <t>15,38; 46,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,72; 93,9</t>
+          <t>63,41; 93,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,89; 100,0</t>
+          <t>75,68; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,53; 43,35</t>
+          <t>19,48; 47,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,57; 97,22</t>
+          <t>78,12; 97,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,9; 100,0</t>
+          <t>86,74; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,31; 38,58</t>
+          <t>21,04; 41,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,74; 93,4</t>
+          <t>76,9; 93,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,85; 98,53</t>
+          <t>89,14; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>45,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,52%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,14; 55,47</t>
+          <t>27,69; 63,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,86; 93,12</t>
+          <t>44,25; 96,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,29; 96,73</t>
+          <t>82,14; 98,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,67; 72,77</t>
+          <t>48,22; 75,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,25; 96,93</t>
+          <t>76,1; 96,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,23; 97,35</t>
+          <t>88,06; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,16; 62,21</t>
+          <t>39,87; 65,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,05; 93,79</t>
+          <t>62,61; 94,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,84; 96,31</t>
+          <t>90,6; 99,04</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,22%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>55,08%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,16%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96,68%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>55,53%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>95,47%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>95,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>52,54%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>94,4%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,43; 59,19</t>
+          <t>43,77; 68,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,89; 96,47</t>
+          <t>82,72; 98,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,6; 93,07</t>
+          <t>80,58; 96,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,64; 63,61</t>
+          <t>44,43; 65,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,3; 98,04</t>
+          <t>93,69; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,26; 98,26</t>
+          <t>90,48; 99,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,89; 59,35</t>
+          <t>47,61; 62,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,55; 96,82</t>
+          <t>91,26; 98,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,09; 95,04</t>
+          <t>89,33; 97,39</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>54,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>96,54%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,64; 59,55</t>
+          <t>47,23; 70,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,45; 96,27</t>
+          <t>81,52; 94,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,71; 99,13</t>
+          <t>89,5; 98,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,91; 57,65</t>
+          <t>39,69; 59,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,11; 95,93</t>
+          <t>88,09; 97,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,34; 98,87</t>
+          <t>91,9; 99,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,24; 56,7</t>
+          <t>45,84; 61,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,37; 95,04</t>
+          <t>87,49; 95,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,25; 98,62</t>
+          <t>92,83; 98,44</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>86,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>90,18%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>90,27%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,87; 39,56</t>
+          <t>17,95; 40,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,36; 92,73</t>
+          <t>66,93; 95,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,0; 96,23</t>
+          <t>64,32; 94,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,95; 50,2</t>
+          <t>25,64; 54,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,08; 99,04</t>
+          <t>86,66; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,7; 100,0</t>
+          <t>88,46; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,06; 41,55</t>
+          <t>22,99; 41,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>81,23; 94,89</t>
+          <t>77,0; 96,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,4; 97,36</t>
+          <t>75,27; 95,87</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>96,35%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,46; 49,74</t>
+          <t>28,19; 61,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,3; 96,32</t>
+          <t>89,8; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,33; 97,58</t>
+          <t>88,84; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 33,0</t>
+          <t>5,76; 32,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,98; 95,88</t>
+          <t>80,53; 97,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,02; 99,06</t>
+          <t>84,15; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,65; 38,04</t>
+          <t>21,18; 43,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,47; 95,34</t>
+          <t>87,98; 98,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,08; 97,79</t>
+          <t>89,33; 98,85</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,64; 45,3</t>
+          <t>38,88; 51,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,34; 91,94</t>
+          <t>79,04; 92,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,62; 95,0</t>
+          <t>88,11; 95,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,43; 49,96</t>
+          <t>40,9; 51,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,77; 95,1</t>
+          <t>91,28; 96,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,64; 97,13</t>
+          <t>94,59; 98,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,4; 46,22</t>
+          <t>41,44; 49,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>88,67; 92,98</t>
+          <t>86,78; 93,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,17; 95,6</t>
+          <t>92,52; 96,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24980</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>86248</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>101658</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>37411</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>118439</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>116034</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>62391</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>204688</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>217692</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13247; 39992</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>67863; 99548</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80005; 105717</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22901; 55749</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>102176; 127687</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>104166; 120084</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42859; 84670</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>182869; 221524</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>201275; 225801</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52724</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>132509</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>135202</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76228</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>149748</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>121621</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>128952</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>282256</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>256822</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31863; 72760</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>73328; 159878</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>117784; 141251</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>58825; 92435</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>125640; 159918</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>109440; 124275</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>94524; 155828</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>207128; 311510</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>242516; 265084</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>77244</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>151417</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>122116</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>111398</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>259219</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>200751</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>188643</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>410636</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>322866</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60162; 94589</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>134058; 159500</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>108273; 130134</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89870; 132064</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>247407; 264071</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>187874; 205889</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>161737; 212469</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>388884; 421137</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>305512; 333087</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>89193</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>166285</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>152253</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>86967</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>199350</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>180425</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>176161</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>365634</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>332678</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>71527; 106185</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>152186; 175897</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>142015; 156651</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69292; 104362</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>186644; 207546</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>170873; 184219</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>149465; 199190</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>348696; 379532</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>319913; 339238</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35174</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>136464</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>110136</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31827</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>109623</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>92022</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>67001</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>246087</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>202158</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23031; 52059</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105368; 150578</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>83712; 122906</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20980; 44541</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>98840; 114051</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>82985; 93816</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>48310; 87961</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>209038; 262060</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>168569; 214711</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35770</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>106587</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>84922</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13341</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>128428</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>98721</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>49112</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>235014</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>183643</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22316; 48863</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>98164; 109317</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77590; 87335</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4510; 25491</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>110813; 134685</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>86902; 103271</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>33355; 67952</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>217233; 243920</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>170265; 188407</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>675.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>315086</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>779511</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>706286</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>357173</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>964805</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>809573</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>672259</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1744316</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1515859</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>271209; 358627</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>702016; 820569</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>669299; 727797</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>317550; 396610</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>934286; 985768</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>789871; 821545</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>610827; 734337</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1659009; 1789792</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1475406; 1540325</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>